--- a/biology/Zoologie/Johann_Friedrich_Wilhelm_Herbst/Johann_Friedrich_Wilhelm_Herbst.xlsx
+++ b/biology/Zoologie/Johann_Friedrich_Wilhelm_Herbst/Johann_Friedrich_Wilhelm_Herbst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Friedrich Wilhelm Herbst est un naturaliste et entomologiste allemand, né le 1er novembre 1743 à Petershagen et mort le 5 novembre 1807 à Berlin.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instituteur à Berlin, Herbst devient pasteur et sert comme aumônier dans l'armée prussienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instituteur à Berlin, Herbst devient pasteur et sert comme aumônier dans l'armée prussienne.
 Herbst et Carl Gustav Jablonsky (1756-1787) font paraître de 1785 à 1806 la première recherche systématique sur les coléoptères en Allemagne Naturgeschichte der in-und ausländischen Insekten.
 Il est également l’auteur de Anleitung zur Kenntnis der Insekten (3 volumes, 1784-1786), Naturgeschichte der Krabben und Krebse (3 volumes, 1782-1804), Einleitung zur Kenntnis der Wür-mer (2 volumes, 1787-1788) et Natursystem der ungeflügelten Insekten (4 volumes, 1797-1800).
 </t>
